--- a/example/game_06_abyssal_nightfall/weapons.xlsx
+++ b/example/game_06_abyssal_nightfall/weapons.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:S10"/>
+  <dimension ref="A4:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,9 +815,68 @@
         <v>Fires 7 pellets; gain +6 damage per pellet within 1.2m.</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>20</v>
+      </c>
+      <c r="B11" t="str">
+        <v>02</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0006</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Eclipse Javelin</v>
+      </c>
+      <c r="E11" t="str">
+        <v>LAUNCHER</v>
+      </c>
+      <c r="F11" t="str">
+        <v>AUTO</v>
+      </c>
+      <c r="G11" t="str">
+        <v>54</v>
+      </c>
+      <c r="H11" t="str">
+        <v>FIRE</v>
+      </c>
+      <c r="I11" t="str">
+        <v>0.32</v>
+      </c>
+      <c r="J11" t="str">
+        <v>2.20</v>
+      </c>
+      <c r="K11" t="str">
+        <v>5</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="M11" t="str">
+        <v>52</v>
+      </c>
+      <c r="N11" t="str">
+        <v>32</v>
+      </c>
+      <c r="O11" t="str">
+        <v>0.70</v>
+      </c>
+      <c r="P11" t="str">
+        <v>fx/projectiles/eclipse_javelin.png</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>fx/impact/eclipse_burst.png</v>
+      </c>
+      <c r="R11" t="str">
+        <v>fx/muzzle/eclipse.png</v>
+      </c>
+      <c r="S11" t="str">
+        <v>Spears explode in a scorch column, best used vs clustered foes.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:S10"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:S11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/weapons.xlsx
+++ b/example/game_06_abyssal_nightfall/weapons.xlsx
@@ -567,13 +567,13 @@
         <v>0.62</v>
       </c>
       <c r="P6" t="str">
-        <v>fx/projectiles/revolver.png</v>
+        <v>ui/assets/fx/projectiles/revolver.png</v>
       </c>
       <c r="Q6" t="str">
-        <v>fx/impact/sparks.png</v>
+        <v>ui/assets/fx/impact/sparks.png</v>
       </c>
       <c r="R6" t="str">
-        <v>fx/muzzle/flame.png</v>
+        <v>ui/assets/fx/muzzle/flame.png</v>
       </c>
       <c r="S6" t="str">
         <v>Baseline sidearm for Sable; stagger on crit.</v>
@@ -626,13 +626,13 @@
         <v>0.30</v>
       </c>
       <c r="P7" t="str">
-        <v>fx/projectiles/beam_ray.png</v>
+        <v>ui/assets/fx/projectiles/beam_ray.png</v>
       </c>
       <c r="Q7" t="str">
-        <v>fx/impact/void_burst.png</v>
+        <v>ui/assets/fx/impact/void_burst.png</v>
       </c>
       <c r="R7" t="str">
-        <v>fx/muzzle/chorus.png</v>
+        <v>ui/assets/fx/muzzle/chorus.png</v>
       </c>
       <c r="S7" t="str">
         <v>Channel beam that ramps +4 dmg per second of focus.</v>
@@ -685,13 +685,13 @@
         <v>0.55</v>
       </c>
       <c r="P8" t="str">
-        <v>fx/projectiles/tide_shell.png</v>
+        <v>ui/assets/fx/projectiles/tide_shell.png</v>
       </c>
       <c r="Q8" t="str">
-        <v>fx/impact/frost_shatter.png</v>
+        <v>ui/assets/fx/impact/frost_shatter.png</v>
       </c>
       <c r="R8" t="str">
-        <v>fx/muzzle/water.png</v>
+        <v>ui/assets/fx/muzzle/water.png</v>
       </c>
       <c r="S8" t="str">
         <v>Two-stage burst: shell splits into 3 shards at 0.35s.</v>
@@ -744,13 +744,13 @@
         <v>0.50</v>
       </c>
       <c r="P9" t="str">
-        <v>fx/projectiles/pulse.png</v>
+        <v>ui/assets/fx/projectiles/pulse.png</v>
       </c>
       <c r="Q9" t="str">
-        <v>fx/impact/pulse_flash.png</v>
+        <v>ui/assets/fx/impact/pulse_flash.png</v>
       </c>
       <c r="R9" t="str">
-        <v>fx/muzzle/pulse_muzzle.png</v>
+        <v>ui/assets/fx/muzzle/pulse_muzzle.png</v>
       </c>
       <c r="S9" t="str">
         <v>Rewards rhythm fire; reload grants +10% move speed for 2s.</v>
@@ -803,13 +803,13 @@
         <v>0.40</v>
       </c>
       <c r="P10" t="str">
-        <v>fx/projectiles/umbral_pellet.png</v>
+        <v>ui/assets/fx/projectiles/umbral_pellet.png</v>
       </c>
       <c r="Q10" t="str">
-        <v>fx/impact/void_scar.png</v>
+        <v>ui/assets/fx/impact/void_scar.png</v>
       </c>
       <c r="R10" t="str">
-        <v>fx/muzzle/umbral.png</v>
+        <v>ui/assets/fx/muzzle/umbral.png</v>
       </c>
       <c r="S10" t="str">
         <v>Fires 7 pellets; gain +6 damage per pellet within 1.2m.</v>
@@ -862,13 +862,13 @@
         <v>0.70</v>
       </c>
       <c r="P11" t="str">
-        <v>fx/projectiles/eclipse_javelin.png</v>
+        <v>ui/assets/fx/projectiles/eclipse_javelin.png</v>
       </c>
       <c r="Q11" t="str">
-        <v>fx/impact/eclipse_burst.png</v>
+        <v>ui/assets/fx/impact/eclipse_burst.png</v>
       </c>
       <c r="R11" t="str">
-        <v>fx/muzzle/eclipse.png</v>
+        <v>ui/assets/fx/muzzle/eclipse.png</v>
       </c>
       <c r="S11" t="str">
         <v>Spears explode in a scorch column, best used vs clustered foes.</v>

--- a/example/game_06_abyssal_nightfall/weapons.xlsx
+++ b/example/game_06_abyssal_nightfall/weapons.xlsx
@@ -540,7 +540,7 @@
         <v>MANUAL</v>
       </c>
       <c r="G6" t="str">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H6" t="str">
         <v>KINETIC</v>

--- a/example/game_06_abyssal_nightfall/weapons.xlsx
+++ b/example/game_06_abyssal_nightfall/weapons.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:S11"/>
+  <dimension ref="A4:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -458,6 +458,18 @@
         <v>string</v>
       </c>
       <c r="S4" t="str">
+        <v>float</v>
+      </c>
+      <c r="T4" t="str">
+        <v>float</v>
+      </c>
+      <c r="U4" t="str">
+        <v>string</v>
+      </c>
+      <c r="V4" t="str">
+        <v>string</v>
+      </c>
+      <c r="W4" t="str">
         <v>string</v>
       </c>
     </row>
@@ -517,6 +529,18 @@
         <v>muzzleSprite</v>
       </c>
       <c r="S5" t="str">
+        <v>projectileScale</v>
+      </c>
+      <c r="T5" t="str">
+        <v>impactScale</v>
+      </c>
+      <c r="U5" t="str">
+        <v>fireSfx</v>
+      </c>
+      <c r="V5" t="str">
+        <v>impactSfx</v>
+      </c>
+      <c r="W5" t="str">
         <v>notes</v>
       </c>
     </row>
@@ -576,6 +600,18 @@
         <v>ui/assets/fx/muzzle/flame.png</v>
       </c>
       <c r="S6" t="str">
+        <v>0.58</v>
+      </c>
+      <c r="T6" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="U6" t="str">
+        <v>ui/assets/sfx/weapons/runic_revolver_fire.wav</v>
+      </c>
+      <c r="V6" t="str">
+        <v>ui/assets/sfx/weapons/runic_revolver_hit.wav</v>
+      </c>
+      <c r="W6" t="str">
         <v>Baseline sidearm for Sable; stagger on crit.</v>
       </c>
     </row>
@@ -635,6 +671,18 @@
         <v>ui/assets/fx/muzzle/chorus.png</v>
       </c>
       <c r="S7" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="T7" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="U7" t="str">
+        <v>ui/assets/sfx/weapons/chorus_ray_fire.wav</v>
+      </c>
+      <c r="V7" t="str">
+        <v>ui/assets/sfx/weapons/chorus_ray_hit.wav</v>
+      </c>
+      <c r="W7" t="str">
         <v>Channel beam that ramps +4 dmg per second of focus.</v>
       </c>
     </row>
@@ -694,6 +742,18 @@
         <v>ui/assets/fx/muzzle/water.png</v>
       </c>
       <c r="S8" t="str">
+        <v>0.76</v>
+      </c>
+      <c r="T8" t="str">
+        <v>1.15</v>
+      </c>
+      <c r="U8" t="str">
+        <v>ui/assets/sfx/weapons/tidebreaker_launcher_fire.wav</v>
+      </c>
+      <c r="V8" t="str">
+        <v>ui/assets/sfx/weapons/tidebreaker_launcher_hit.wav</v>
+      </c>
+      <c r="W8" t="str">
         <v>Two-stage burst: shell splits into 3 shards at 0.35s.</v>
       </c>
     </row>
@@ -753,6 +813,18 @@
         <v>ui/assets/fx/muzzle/pulse_muzzle.png</v>
       </c>
       <c r="S9" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="T9" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="U9" t="str">
+        <v>ui/assets/sfx/weapons/pulse_carbine_fire.wav</v>
+      </c>
+      <c r="V9" t="str">
+        <v>ui/assets/sfx/weapons/pulse_carbine_hit.wav</v>
+      </c>
+      <c r="W9" t="str">
         <v>Rewards rhythm fire; reload grants +10% move speed for 2s.</v>
       </c>
     </row>
@@ -812,6 +884,18 @@
         <v>ui/assets/fx/muzzle/umbral.png</v>
       </c>
       <c r="S10" t="str">
+        <v>0.72</v>
+      </c>
+      <c r="T10" t="str">
+        <v>1.05</v>
+      </c>
+      <c r="U10" t="str">
+        <v>ui/assets/sfx/weapons/umbral_scattergun_fire.wav</v>
+      </c>
+      <c r="V10" t="str">
+        <v>ui/assets/sfx/weapons/umbral_scattergun_hit.wav</v>
+      </c>
+      <c r="W10" t="str">
         <v>Fires 7 pellets; gain +6 damage per pellet within 1.2m.</v>
       </c>
     </row>
@@ -871,12 +955,24 @@
         <v>ui/assets/fx/muzzle/eclipse.png</v>
       </c>
       <c r="S11" t="str">
+        <v>0.68</v>
+      </c>
+      <c r="T11" t="str">
+        <v>1.18</v>
+      </c>
+      <c r="U11" t="str">
+        <v>ui/assets/sfx/weapons/eclipse_javelin_fire.wav</v>
+      </c>
+      <c r="V11" t="str">
+        <v>ui/assets/sfx/weapons/eclipse_javelin_hit.wav</v>
+      </c>
+      <c r="W11" t="str">
         <v>Spears explode in a scorch column, best used vs clustered foes.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:S11"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:W11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/weapons.xlsx
+++ b/example/game_06_abyssal_nightfall/weapons.xlsx
@@ -458,19 +458,19 @@
         <v>string</v>
       </c>
       <c r="S4" t="str">
-        <v>float</v>
+        <v>string</v>
       </c>
       <c r="T4" t="str">
-        <v>float</v>
+        <v>string</v>
       </c>
       <c r="U4" t="str">
         <v>string</v>
       </c>
       <c r="V4" t="str">
-        <v>string</v>
+        <v>float</v>
       </c>
       <c r="W4" t="str">
-        <v>string</v>
+        <v>float</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +529,19 @@
         <v>muzzleSprite</v>
       </c>
       <c r="S5" t="str">
+        <v>notes</v>
+      </c>
+      <c r="T5" t="str">
+        <v>fireSfx</v>
+      </c>
+      <c r="U5" t="str">
+        <v>impactSfx</v>
+      </c>
+      <c r="V5" t="str">
         <v>projectileScale</v>
       </c>
-      <c r="T5" t="str">
+      <c r="W5" t="str">
         <v>impactScale</v>
-      </c>
-      <c r="U5" t="str">
-        <v>fireSfx</v>
-      </c>
-      <c r="V5" t="str">
-        <v>impactSfx</v>
-      </c>
-      <c r="W5" t="str">
-        <v>notes</v>
       </c>
     </row>
     <row r="6">
@@ -555,16 +555,16 @@
         <v>0001</v>
       </c>
       <c r="D6" t="str">
-        <v>Runic Revolver</v>
+        <v>霓虹符文左轮</v>
       </c>
       <c r="E6" t="str">
-        <v>SIDEARM</v>
+        <v>霓虹侧臂</v>
       </c>
       <c r="F6" t="str">
         <v>MANUAL</v>
       </c>
       <c r="G6" t="str">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H6" t="str">
         <v>KINETIC</v>
@@ -591,28 +591,28 @@
         <v>0.62</v>
       </c>
       <c r="P6" t="str">
-        <v>ui/assets/fx/projectiles/revolver.png</v>
+        <v>fx/projectiles/revolver.png</v>
       </c>
       <c r="Q6" t="str">
-        <v>ui/assets/fx/impact/sparks.png</v>
+        <v>fx/impact/sparks.png</v>
       </c>
       <c r="R6" t="str">
-        <v>ui/assets/fx/muzzle/flame.png</v>
+        <v>fx/muzzle/flame.png</v>
       </c>
       <c r="S6" t="str">
-        <v>0.58</v>
+        <v>轻量侧臂，暴击可震慑敌人 0.3 秒。</v>
       </c>
       <c r="T6" t="str">
+        <v>ui/assets/sfx/weapons/runic_revolver_fire.wav</v>
+      </c>
+      <c r="U6" t="str">
+        <v>ui/assets/sfx/weapons/runic_revolver_hit.wav</v>
+      </c>
+      <c r="V6" t="str">
+        <v>0.68</v>
+      </c>
+      <c r="W6" t="str">
         <v>0.9</v>
-      </c>
-      <c r="U6" t="str">
-        <v>ui/assets/sfx/weapons/runic_revolver_fire.wav</v>
-      </c>
-      <c r="V6" t="str">
-        <v>ui/assets/sfx/weapons/runic_revolver_hit.wav</v>
-      </c>
-      <c r="W6" t="str">
-        <v>Baseline sidearm for Sable; stagger on crit.</v>
       </c>
     </row>
     <row r="7">
@@ -626,10 +626,10 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>Chorus Ray</v>
+        <v>共鸣光谱射线</v>
       </c>
       <c r="E7" t="str">
-        <v>ARCANE</v>
+        <v>以太光束</v>
       </c>
       <c r="F7" t="str">
         <v>BEAM</v>
@@ -662,28 +662,28 @@
         <v>0.30</v>
       </c>
       <c r="P7" t="str">
-        <v>ui/assets/fx/projectiles/beam_ray.png</v>
+        <v>fx/projectiles/beam_ray.png</v>
       </c>
       <c r="Q7" t="str">
-        <v>ui/assets/fx/impact/void_burst.png</v>
+        <v>fx/impact/void_burst.png</v>
       </c>
       <c r="R7" t="str">
-        <v>ui/assets/fx/muzzle/chorus.png</v>
+        <v>fx/muzzle/chorus.png</v>
       </c>
       <c r="S7" t="str">
-        <v>0.8</v>
+        <v>持续瞄准时，伤害每秒提升 +4。</v>
       </c>
       <c r="T7" t="str">
-        <v>1.1</v>
+        <v>ui/assets/sfx/weapons/chorus_ray_fire.wav</v>
       </c>
       <c r="U7" t="str">
-        <v>ui/assets/sfx/weapons/chorus_ray_fire.wav</v>
+        <v>ui/assets/sfx/weapons/chorus_ray_hit.wav</v>
       </c>
       <c r="V7" t="str">
-        <v>ui/assets/sfx/weapons/chorus_ray_hit.wav</v>
+        <v>0.85</v>
       </c>
       <c r="W7" t="str">
-        <v>Channel beam that ramps +4 dmg per second of focus.</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8">
@@ -697,10 +697,10 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>Tidebreaker Launcher</v>
+        <v>潮裂破晓炮</v>
       </c>
       <c r="E8" t="str">
-        <v>LAUNCHER</v>
+        <v>潮汐重炮</v>
       </c>
       <c r="F8" t="str">
         <v>BURST</v>
@@ -733,28 +733,28 @@
         <v>0.55</v>
       </c>
       <c r="P8" t="str">
-        <v>ui/assets/fx/projectiles/tide_shell.png</v>
+        <v>fx/projectiles/tide_shell.png</v>
       </c>
       <c r="Q8" t="str">
-        <v>ui/assets/fx/impact/frost_shatter.png</v>
+        <v>fx/impact/frost_shatter.png</v>
       </c>
       <c r="R8" t="str">
-        <v>ui/assets/fx/muzzle/water.png</v>
+        <v>fx/muzzle/water.png</v>
       </c>
       <c r="S8" t="str">
-        <v>0.76</v>
+        <v>0.35 秒后裂解成三枚霜晶碎片。</v>
       </c>
       <c r="T8" t="str">
+        <v>ui/assets/sfx/weapons/tidebreaker_launcher_fire.wav</v>
+      </c>
+      <c r="U8" t="str">
+        <v>ui/assets/sfx/weapons/tidebreaker_launcher_hit.wav</v>
+      </c>
+      <c r="V8" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="W8" t="str">
         <v>1.15</v>
-      </c>
-      <c r="U8" t="str">
-        <v>ui/assets/sfx/weapons/tidebreaker_launcher_fire.wav</v>
-      </c>
-      <c r="V8" t="str">
-        <v>ui/assets/sfx/weapons/tidebreaker_launcher_hit.wav</v>
-      </c>
-      <c r="W8" t="str">
-        <v>Two-stage burst: shell splits into 3 shards at 0.35s.</v>
       </c>
     </row>
     <row r="9">
@@ -768,10 +768,10 @@
         <v>0004</v>
       </c>
       <c r="D9" t="str">
-        <v>Pulse Carbine</v>
+        <v>脉冲疾能卡宾枪</v>
       </c>
       <c r="E9" t="str">
-        <v>RIFLE</v>
+        <v>脉冲步枪</v>
       </c>
       <c r="F9" t="str">
         <v>MANUAL</v>
@@ -804,28 +804,28 @@
         <v>0.50</v>
       </c>
       <c r="P9" t="str">
-        <v>ui/assets/fx/projectiles/pulse.png</v>
+        <v>fx/projectiles/pulse.png</v>
       </c>
       <c r="Q9" t="str">
-        <v>ui/assets/fx/impact/pulse_flash.png</v>
+        <v>fx/impact/pulse_flash.png</v>
       </c>
       <c r="R9" t="str">
-        <v>ui/assets/fx/muzzle/pulse_muzzle.png</v>
+        <v>fx/muzzle/pulse_muzzle.png</v>
       </c>
       <c r="S9" t="str">
-        <v>0.6</v>
+        <v>跟随节奏射击可叠加动量，加速装填。</v>
       </c>
       <c r="T9" t="str">
-        <v>0.9</v>
+        <v>ui/assets/sfx/weapons/pulse_carbine_fire.wav</v>
       </c>
       <c r="U9" t="str">
-        <v>ui/assets/sfx/weapons/pulse_carbine_fire.wav</v>
+        <v>ui/assets/sfx/weapons/pulse_carbine_hit.wav</v>
       </c>
       <c r="V9" t="str">
-        <v>ui/assets/sfx/weapons/pulse_carbine_hit.wav</v>
+        <v>0.7</v>
       </c>
       <c r="W9" t="str">
-        <v>Rewards rhythm fire; reload grants +10% move speed for 2s.</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -839,10 +839,10 @@
         <v>0005</v>
       </c>
       <c r="D10" t="str">
-        <v>Umbral Scattergun</v>
+        <v>幽幕散裂霰炮</v>
       </c>
       <c r="E10" t="str">
-        <v>SHOTGUN</v>
+        <v>暗影霰弹</v>
       </c>
       <c r="F10" t="str">
         <v>BURST</v>
@@ -875,28 +875,28 @@
         <v>0.40</v>
       </c>
       <c r="P10" t="str">
-        <v>ui/assets/fx/projectiles/umbral_pellet.png</v>
+        <v>fx/projectiles/umbral_pellet.png</v>
       </c>
       <c r="Q10" t="str">
-        <v>ui/assets/fx/impact/void_scar.png</v>
+        <v>fx/impact/void_scar.png</v>
       </c>
       <c r="R10" t="str">
-        <v>ui/assets/fx/muzzle/umbral.png</v>
+        <v>fx/muzzle/umbral.png</v>
       </c>
       <c r="S10" t="str">
-        <v>0.72</v>
+        <v>近距离命中同一目标时，每颗弹丸额外 +6 伤害。</v>
       </c>
       <c r="T10" t="str">
-        <v>1.05</v>
+        <v>ui/assets/sfx/weapons/umbral_scattergun_fire.wav</v>
       </c>
       <c r="U10" t="str">
-        <v>ui/assets/sfx/weapons/umbral_scattergun_fire.wav</v>
+        <v>ui/assets/sfx/weapons/umbral_scattergun_hit.wav</v>
       </c>
       <c r="V10" t="str">
-        <v>ui/assets/sfx/weapons/umbral_scattergun_hit.wav</v>
+        <v>0.78</v>
       </c>
       <c r="W10" t="str">
-        <v>Fires 7 pellets; gain +6 damage per pellet within 1.2m.</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">
@@ -910,10 +910,10 @@
         <v>0006</v>
       </c>
       <c r="D11" t="str">
-        <v>Eclipse Javelin</v>
+        <v>蚀光穿梭矛阵</v>
       </c>
       <c r="E11" t="str">
-        <v>LAUNCHER</v>
+        <v>熔蚀矛阵</v>
       </c>
       <c r="F11" t="str">
         <v>AUTO</v>
@@ -946,28 +946,28 @@
         <v>0.70</v>
       </c>
       <c r="P11" t="str">
-        <v>ui/assets/fx/projectiles/eclipse_javelin.png</v>
+        <v>fx/projectiles/eclipse_javelin.png</v>
       </c>
       <c r="Q11" t="str">
-        <v>ui/assets/fx/impact/eclipse_burst.png</v>
+        <v>fx/impact/eclipse_burst.png</v>
       </c>
       <c r="R11" t="str">
-        <v>ui/assets/fx/muzzle/eclipse.png</v>
+        <v>fx/muzzle/eclipse.png</v>
       </c>
       <c r="S11" t="str">
-        <v>0.68</v>
+        <v>自导矛头炸裂出炽焰柱，擅长清理聚群敌人。</v>
       </c>
       <c r="T11" t="str">
-        <v>1.18</v>
+        <v>ui/assets/sfx/weapons/eclipse_javelin_fire.wav</v>
       </c>
       <c r="U11" t="str">
-        <v>ui/assets/sfx/weapons/eclipse_javelin_fire.wav</v>
+        <v>ui/assets/sfx/weapons/eclipse_javelin_hit.wav</v>
       </c>
       <c r="V11" t="str">
-        <v>ui/assets/sfx/weapons/eclipse_javelin_hit.wav</v>
+        <v>0.82</v>
       </c>
       <c r="W11" t="str">
-        <v>Spears explode in a scorch column, best used vs clustered foes.</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
